--- a/biology/Zoologie/Elateroidea/Elateroidea.xlsx
+++ b/biology/Zoologie/Elateroidea/Elateroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elateroidea désigne une super-famille d'insectes  coléoptères comprenant notamment les familles des Elateridae, des Lampyridae et des Cantharidae.
 Certaines familles sont plus proches entre elles. Ainsi, les Elateridae sont proches des Anischiidae, des Cerophytidae, des Eucnemidae et des Throscidae. Quant à eux, les Lampyridae sont proches des Drilidae, des Omalisidae, des Phengodidae (comprenant les Telegeusidae) et des Rhagophthalmidae. Les membres de ces familles sont d'ailleurs bioluminescents (au moins au stade de larve). Plusieurs espèces ont des femelles larviformes, bien que cela soit également observé dans quelques autres familles de cette super-famille.
@@ -513,9 +525,11 @@
           <t>Liste des familles, sous-familles, genres, espèces, sous-espèces et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 août 2014)[2] :
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 août 2014) :
 famille Artematopodidae
 famille Brachypsectridae
 famille Cantharidae
@@ -529,7 +543,7 @@
 famille Rhagophthalmidae
 famille Telegeusidae
 famille Throscidae
-Selon ITIS      (22 août 2014)[1] :
+Selon ITIS      (22 août 2014) :
 famille Artematopodidae Lacordaire, 1857
 famille Brachypsectridae LeConte &amp; Horn, 1883
 famille Cantharidae Imhoff, 1856
@@ -546,7 +560,7 @@
 famille Rhagophthalmidae Olivier, 1907
 famille Telegeusidae Leng, 1920
 famille Throscidae Laporte, 1840
-Selon NCBI  (22 août 2014)[3] :
+Selon NCBI  (22 août 2014) :
 famille Anischiidae
 genre Anischia
 Anischia bicolor
@@ -1647,7 +1661,7 @@
 Trixagus meybohmi
 Trixagus obtusus
 Trixagus turgidus
-Selon Paleobiology Database                   (22 août 2014)[4] :
+Selon Paleobiology Database                   (22 août 2014) :
 Anischiinae
 Artematopodidae
 Brachypsectridae
